--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1282.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1282.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8402161933668624</v>
+        <v>1.134130716323853</v>
       </c>
       <c r="B1">
-        <v>1.532590985418707</v>
+        <v>2.221505880355835</v>
       </c>
       <c r="C1">
-        <v>5.27899845630535</v>
+        <v>10.79817676544189</v>
       </c>
       <c r="D1">
-        <v>3.7088150927304</v>
+        <v>2.288745641708374</v>
       </c>
       <c r="E1">
-        <v>1.501416754367441</v>
+        <v>1.281835317611694</v>
       </c>
     </row>
   </sheetData>
